--- a/2-pasta_organização/Documents/analytics.xlsx
+++ b/2-pasta_organização/Documents/analytics.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PHOS-4\Arq. Comp\Analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Pasta Bandtec\Pesquisa e inovação\PHOS-4\PHOS-4\2-pasta_organização\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886B3F7B-EDC2-416F-9C9B-123C9046A3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analytics" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
   <si>
     <t>null</t>
   </si>
@@ -106,12 +107,18 @@
   <si>
     <t>Luminosidade</t>
   </si>
+  <si>
+    <t>Luminosidade(Lux)</t>
+  </si>
+  <si>
+    <t>Crítico</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,8 +141,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +221,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -704,11 +735,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -829,6 +912,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -868,13 +958,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,7 +1075,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1115,40 +1215,40 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>979</c:v>
+                  <c:v>944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>912</c:v>
+                  <c:v>898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>789</c:v>
+                  <c:v>821</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>604</c:v>
+                  <c:v>676</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>562</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>570</c:v>
+                  <c:v>572</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>637</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>757</c:v>
+                  <c:v>733</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>781</c:v>
+                  <c:v>835</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>839</c:v>
+                  <c:v>876</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>935</c:v>
+                  <c:v>923</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1000</c:v>
@@ -1268,40 +1368,40 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>967</c:v>
+                  <c:v>923</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>842</c:v>
+                  <c:v>898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>804</c:v>
+                  <c:v>790</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>684</c:v>
+                  <c:v>681</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>655</c:v>
+                  <c:v>613</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>528</c:v>
+                  <c:v>562</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>521</c:v>
+                  <c:v>559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>636</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>690</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>823</c:v>
+                  <c:v>792</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>905</c:v>
+                  <c:v>851</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>967</c:v>
+                  <c:v>992</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1000</c:v>
@@ -1421,40 +1521,40 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>951</c:v>
+                  <c:v>996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>892</c:v>
+                  <c:v>855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>778</c:v>
+                  <c:v>816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>695</c:v>
+                  <c:v>752</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>662</c:v>
+                  <c:v>607</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>525</c:v>
+                  <c:v>559</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>552</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>600</c:v>
+                  <c:v>623</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>697</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>834</c:v>
+                  <c:v>784</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>915</c:v>
+                  <c:v>898</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>939</c:v>
+                  <c:v>927</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1000</c:v>
@@ -1574,40 +1674,40 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>953</c:v>
+                  <c:v>966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>902</c:v>
+                  <c:v>892</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>793</c:v>
+                  <c:v>824</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>751</c:v>
+                  <c:v>698</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>665</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>575</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>561</c:v>
+                  <c:v>567</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>665</c:v>
+                  <c:v>608</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>740</c:v>
+                  <c:v>726</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>796</c:v>
+                  <c:v>808</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>856</c:v>
+                  <c:v>865</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>978</c:v>
+                  <c:v>968</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1000</c:v>
@@ -1727,40 +1827,40 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>927</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>862</c:v>
+                  <c:v>865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>810</c:v>
+                  <c:v>792</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>686</c:v>
+                  <c:v>748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>615</c:v>
+                  <c:v>596</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>530</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>540</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>614</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>705</c:v>
+                  <c:v>753</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>799</c:v>
+                  <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>863</c:v>
+                  <c:v>905</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>935</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1000</c:v>
@@ -1880,40 +1980,40 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>952</c:v>
+                  <c:v>977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>903</c:v>
+                  <c:v>918</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>790</c:v>
+                  <c:v>823</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>753</c:v>
+                  <c:v>698</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>637</c:v>
+                  <c:v>597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>551</c:v>
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>558</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>611</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>715</c:v>
+                  <c:v>755</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>772</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>917</c:v>
+                  <c:v>863</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>938</c:v>
+                  <c:v>939</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1000</c:v>
@@ -1954,7 +2054,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2074,7 +2173,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2147,7 +2245,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2777,7 +2874,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3057,11 +3160,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21:X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3077,6 +3180,13 @@
     <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" customWidth="1"/>
+    <col min="24" max="24" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3103,7 +3213,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="22"/>
-      <c r="K2" s="69"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="42" t="s">
         <v>19</v>
       </c>
@@ -3154,23 +3264,23 @@
       </c>
       <c r="M3" s="33">
         <f ca="1">MIN(E8:E21)</f>
-        <v>521</v>
+        <v>559</v>
       </c>
       <c r="N3" s="33">
         <f ca="1">MIN(F8:F21)</f>
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="O3" s="33">
         <f ca="1">MIN(G8:G21)</f>
-        <v>561</v>
+        <v>520</v>
       </c>
       <c r="P3" s="33">
         <f ca="1">MIN(H8:H21)</f>
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="Q3" s="32">
         <f ca="1">MIN(I8:I23)</f>
-        <v>551</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="3:17" x14ac:dyDescent="0.25">
@@ -3200,27 +3310,27 @@
       </c>
       <c r="L4" s="34">
         <f t="shared" ref="L4:Q4" ca="1" si="0">_xlfn.QUARTILE.EXC(D8:D23,1)</f>
-        <v>612.25</v>
+        <v>667</v>
       </c>
       <c r="M4" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>662.25</v>
+        <v>655.5</v>
       </c>
       <c r="N4" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>670.25</v>
+        <v>637.25</v>
       </c>
       <c r="O4" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>683.75</v>
+        <v>640.25</v>
       </c>
       <c r="P4" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>632.75</v>
+        <v>682</v>
       </c>
       <c r="Q4" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>656.5</v>
+        <v>632.75</v>
       </c>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.25">
@@ -3250,27 +3360,27 @@
       </c>
       <c r="L5" s="34">
         <f t="shared" ref="L5:Q5" ca="1" si="1">MEDIAN(D8:D23)</f>
-        <v>814</v>
+        <v>855.5</v>
       </c>
       <c r="M5" s="33">
         <f t="shared" ca="1" si="1"/>
-        <v>832.5</v>
+        <v>821.5</v>
       </c>
       <c r="N5" s="33">
         <f t="shared" ca="1" si="1"/>
-        <v>863</v>
+        <v>835.5</v>
       </c>
       <c r="O5" s="33">
         <f t="shared" ca="1" si="1"/>
-        <v>826</v>
+        <v>844.5</v>
       </c>
       <c r="P5" s="33">
         <f t="shared" ca="1" si="1"/>
-        <v>836</v>
+        <v>846.5</v>
       </c>
       <c r="Q5" s="32">
         <f t="shared" ca="1" si="1"/>
-        <v>846.5</v>
+        <v>843</v>
       </c>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
@@ -3300,27 +3410,27 @@
       </c>
       <c r="L6" s="34">
         <f t="shared" ref="L6:Q6" ca="1" si="2">_xlfn.QUARTILE.EXC(D8:D23,3)</f>
-        <v>994.75</v>
+        <v>986</v>
       </c>
       <c r="M6" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>991.75</v>
+        <v>998</v>
       </c>
       <c r="N6" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>987.75</v>
+        <v>999</v>
       </c>
       <c r="O6" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>994.5</v>
+        <v>992</v>
       </c>
       <c r="P6" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>983.75</v>
+        <v>995</v>
       </c>
       <c r="Q6" s="32">
         <f t="shared" ca="1" si="2"/>
-        <v>988</v>
+        <v>994.25</v>
       </c>
     </row>
     <row r="7" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3403,27 +3513,27 @@
       </c>
       <c r="D9" s="7">
         <f t="shared" ref="D9:I9" ca="1" si="4">RANDBETWEEN(920,1000)</f>
-        <v>979</v>
+        <v>944</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>967</v>
+        <v>923</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>951</v>
+        <v>996</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>953</v>
+        <v>966</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>927</v>
+        <v>980</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>952</v>
+        <v>977</v>
       </c>
       <c r="K9" t="s">
         <v>8</v>
@@ -3435,54 +3545,54 @@
       </c>
       <c r="D10" s="7">
         <f t="shared" ref="D10:I10" ca="1" si="5">RANDBETWEEN(839,919)</f>
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>842</v>
+        <v>898</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>892</v>
+        <v>855</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>903</v>
+        <v>918</v>
       </c>
       <c r="K10" s="26" t="s">
         <v>7</v>
       </c>
       <c r="L10" s="25">
         <f t="shared" ref="L10:Q10" ca="1" si="6">AVERAGE(D8:D23)</f>
-        <v>802.5625</v>
+        <v>810.6875</v>
       </c>
       <c r="M10" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>813.875</v>
+        <v>812.4375</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>815</v>
+        <v>817.6875</v>
       </c>
       <c r="O10" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>827.1875</v>
+        <v>816.4375</v>
       </c>
       <c r="P10" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>805.375</v>
+        <v>824.9375</v>
       </c>
       <c r="Q10" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>818.5625</v>
+        <v>814.9375</v>
       </c>
     </row>
     <row r="11" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3491,27 +3601,27 @@
       </c>
       <c r="D11" s="9">
         <f t="shared" ref="D11:I11" ca="1" si="7">RANDBETWEEN(759,838)</f>
-        <v>789</v>
+        <v>821</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>778</v>
+        <v>816</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>793</v>
+        <v>824</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="J11" s="22"/>
       <c r="L11" s="17"/>
@@ -3530,31 +3640,31 @@
       </c>
       <c r="E12" s="9">
         <f ca="1">RANDBETWEEN(677,757)</f>
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F12" s="13">
         <f ca="1">RANDBETWEEN(677,757)</f>
-        <v>695</v>
+        <v>752</v>
       </c>
       <c r="G12" s="13">
         <f ca="1">RANDBETWEEN(677,757)</f>
-        <v>751</v>
+        <v>698</v>
       </c>
       <c r="H12" s="13">
         <f ca="1">RANDBETWEEN(677,757)</f>
-        <v>686</v>
+        <v>748</v>
       </c>
       <c r="I12" s="12">
         <f ca="1">RANDBETWEEN(677,757)</f>
-        <v>753</v>
+        <v>698</v>
       </c>
       <c r="K12" s="17"/>
-      <c r="L12" s="62" t="s">
+      <c r="L12" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="64"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="67"/>
     </row>
     <row r="13" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
@@ -3562,35 +3672,35 @@
       </c>
       <c r="D13" s="13">
         <f t="shared" ref="D13:I13" ca="1" si="8">RANDBETWEEN(596,676)</f>
-        <v>604</v>
+        <v>676</v>
       </c>
       <c r="E13" s="13">
         <f t="shared" ca="1" si="8"/>
-        <v>655</v>
+        <v>613</v>
       </c>
       <c r="F13" s="13">
         <f t="shared" ca="1" si="8"/>
-        <v>662</v>
+        <v>607</v>
       </c>
       <c r="G13" s="13">
         <f t="shared" ca="1" si="8"/>
-        <v>665</v>
+        <v>621</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" ca="1" si="8"/>
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="I13" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>637</v>
+        <v>597</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="20"/>
-      <c r="M13" s="65" t="s">
+      <c r="M13" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="65"/>
-      <c r="O13" s="66"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="69"/>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C14" s="4">
@@ -3598,35 +3708,35 @@
       </c>
       <c r="D14" s="13">
         <f t="shared" ref="D14:I15" ca="1" si="9">RANDBETWEEN(515,595)</f>
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="E14" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>528</v>
+        <v>562</v>
       </c>
       <c r="F14" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="G14" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>575</v>
+        <v>520</v>
       </c>
       <c r="H14" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="I14" s="12">
         <f t="shared" ca="1" si="9"/>
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="19"/>
-      <c r="M14" s="60" t="s">
+      <c r="M14" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="60"/>
-      <c r="O14" s="61"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="64"/>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C15" s="4">
@@ -3634,35 +3744,35 @@
       </c>
       <c r="D15" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E15" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>521</v>
+        <v>559</v>
       </c>
       <c r="F15" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="G15" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H15" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="I15" s="12">
         <f t="shared" ca="1" si="9"/>
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="18"/>
-      <c r="M15" s="58" t="s">
+      <c r="M15" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="58"/>
-      <c r="O15" s="59"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="62"/>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C16" s="4">
@@ -3670,23 +3780,23 @@
       </c>
       <c r="D16" s="13">
         <f t="shared" ref="D16:I16" ca="1" si="10">RANDBETWEEN(596,676)</f>
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="E16" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="F16" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="G16" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>665</v>
+        <v>608</v>
       </c>
       <c r="H16" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>614</v>
+        <v>660</v>
       </c>
       <c r="I16" s="12">
         <f t="shared" ca="1" si="10"/>
@@ -3700,130 +3810,130 @@
       <c r="N16" s="15"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C17" s="4">
         <v>15</v>
       </c>
       <c r="D17" s="13">
         <f t="shared" ref="D17:I17" ca="1" si="11">RANDBETWEEN(677,757)</f>
-        <v>757</v>
+        <v>733</v>
       </c>
       <c r="E17" s="13">
         <f t="shared" ca="1" si="11"/>
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" ca="1" si="11"/>
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="G17" s="13">
         <f t="shared" ca="1" si="11"/>
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" ca="1" si="11"/>
-        <v>705</v>
+        <v>753</v>
       </c>
       <c r="I17" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>715</v>
+        <v>755</v>
       </c>
       <c r="J17" s="11"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="58" t="s">
+      <c r="M17" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="62"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C18" s="4">
         <v>16</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" ref="D18:I18" ca="1" si="12">RANDBETWEEN(759,838)</f>
-        <v>781</v>
+        <v>835</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>823</v>
+        <v>792</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>834</v>
+        <v>784</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="H18" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>799</v>
+        <v>828</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>772</v>
+        <v>780</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C19" s="4">
         <v>17</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" ref="D19:I19" ca="1" si="13">RANDBETWEEN(839,919)</f>
-        <v>839</v>
+        <v>876</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>905</v>
+        <v>851</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>915</v>
+        <v>898</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>863</v>
+        <v>905</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>917</v>
+        <v>863</v>
       </c>
     </row>
-    <row r="20" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="4">
         <v>18</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" ref="D20:I20" ca="1" si="14">RANDBETWEEN(920,1000)</f>
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>967</v>
+        <v>992</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>935</v>
+        <v>960</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:24" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="4">
         <v>19</v>
       </c>
@@ -3845,16 +3955,24 @@
       <c r="I21" s="27">
         <v>1000</v>
       </c>
-      <c r="K21" s="55" t="s">
+      <c r="K21" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="57"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="60"/>
+      <c r="S21" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="75"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="4">
         <v>20</v>
       </c>
@@ -3879,10 +3997,10 @@
       <c r="K22" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="54" t="s">
+      <c r="L22" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="54"/>
+      <c r="M22" s="57"/>
       <c r="N22" s="47" t="s">
         <v>23</v>
       </c>
@@ -3892,8 +4010,26 @@
       <c r="P22" s="49" t="s">
         <v>25</v>
       </c>
+      <c r="S22" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="U22" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="V22" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="W22" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="X22" s="70" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="23" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4">
         <v>21</v>
       </c>
@@ -3933,8 +4069,26 @@
       <c r="P23" s="53">
         <v>1000</v>
       </c>
+      <c r="S23" s="70">
+        <v>500</v>
+      </c>
+      <c r="T23" s="71">
+        <v>562</v>
+      </c>
+      <c r="U23" s="72">
+        <v>625</v>
+      </c>
+      <c r="V23" s="72">
+        <v>625</v>
+      </c>
+      <c r="W23" s="71">
+        <v>687</v>
+      </c>
+      <c r="X23" s="70">
+        <v>750</v>
+      </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C24" s="4">
         <v>22</v>
       </c>
@@ -3957,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C25" s="4">
         <v>23</v>
       </c>
@@ -3980,32 +4134,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>24</v>
       </c>
-      <c r="D26" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="68" t="s">
+      <c r="D26" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="55" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="S21:X21"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="K21:P21"/>
     <mergeCell ref="M17:O17"/>

--- a/2-pasta_organização/Documents/analytics.xlsx
+++ b/2-pasta_organização/Documents/analytics.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Pasta Bandtec\Pesquisa e inovação\PHOS-4\PHOS-4\2-pasta_organização\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\PHOS-4\2-pasta_organização\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886B3F7B-EDC2-416F-9C9B-123C9046A3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Analytics" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -117,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,15 +142,17 @@
     </font>
     <font>
       <b/>
-      <sz val="28"/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -234,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -737,53 +738,46 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -958,13 +952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -973,9 +961,31 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,6 +1085,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1215,10 +1226,10 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>944</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>898</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>821</c:v>
@@ -1227,28 +1238,28 @@
                   <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>676</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>553</c:v>
+                  <c:v>533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>572</c:v>
+                  <c:v>561</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>664</c:v>
+                  <c:v>617</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>733</c:v>
+                  <c:v>699</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>835</c:v>
+                  <c:v>809</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>876</c:v>
+                  <c:v>878</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>923</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1000</c:v>
@@ -1368,40 +1379,40 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>923</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>898</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>790</c:v>
+                  <c:v>782</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>681</c:v>
+                  <c:v>733</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>613</c:v>
+                  <c:v>615</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>562</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>559</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>647</c:v>
+                  <c:v>617</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>691</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>792</c:v>
+                  <c:v>822</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>851</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>992</c:v>
+                  <c:v>978</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1000</c:v>
@@ -1521,40 +1532,40 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>996</c:v>
+                  <c:v>946</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>855</c:v>
+                  <c:v>856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>816</c:v>
+                  <c:v>826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>752</c:v>
+                  <c:v>706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>607</c:v>
+                  <c:v>643</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>559</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>586</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>623</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>680</c:v>
+                  <c:v>705</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>784</c:v>
+                  <c:v>790</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>898</c:v>
+                  <c:v>865</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>927</c:v>
+                  <c:v>971</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1000</c:v>
@@ -1674,40 +1685,40 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>966</c:v>
+                  <c:v>981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>892</c:v>
+                  <c:v>851</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>824</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>698</c:v>
+                  <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>621</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>520</c:v>
+                  <c:v>594</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>567</c:v>
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>608</c:v>
+                  <c:v>632</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>726</c:v>
+                  <c:v>694</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>808</c:v>
+                  <c:v>788</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>865</c:v>
+                  <c:v>867</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>968</c:v>
+                  <c:v>933</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1000</c:v>
@@ -1827,40 +1838,40 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>980</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>865</c:v>
+                  <c:v>918</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>792</c:v>
+                  <c:v>789</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>748</c:v>
+                  <c:v>722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>596</c:v>
+                  <c:v>598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>539</c:v>
+                  <c:v>538</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>573</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>660</c:v>
+                  <c:v>615</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>753</c:v>
+                  <c:v>722</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>828</c:v>
+                  <c:v>809</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>905</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>960</c:v>
+                  <c:v>961</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1000</c:v>
@@ -1980,40 +1991,40 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>977</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>918</c:v>
+                  <c:v>849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>823</c:v>
+                  <c:v>808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>698</c:v>
+                  <c:v>683</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>597</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>521</c:v>
+                  <c:v>559</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>557</c:v>
+                  <c:v>524</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>611</c:v>
+                  <c:v>627</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>755</c:v>
+                  <c:v>692</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>780</c:v>
+                  <c:v>819</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>863</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>939</c:v>
+                  <c:v>981</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1000</c:v>
@@ -2054,6 +2065,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2173,6 +2185,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2245,6 +2258,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3160,11 +3174,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21:X21"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3264,23 +3278,23 @@
       </c>
       <c r="M3" s="33">
         <f ca="1">MIN(E8:E21)</f>
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="N3" s="33">
         <f ca="1">MIN(F8:F21)</f>
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="O3" s="33">
         <f ca="1">MIN(G8:G21)</f>
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P3" s="33">
         <f ca="1">MIN(H8:H21)</f>
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="Q3" s="32">
         <f ca="1">MIN(I8:I23)</f>
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="3:17" x14ac:dyDescent="0.25">
@@ -3310,27 +3324,27 @@
       </c>
       <c r="L4" s="34">
         <f t="shared" ref="L4:Q4" ca="1" si="0">_xlfn.QUARTILE.EXC(D8:D23,1)</f>
-        <v>667</v>
+        <v>604.25</v>
       </c>
       <c r="M4" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>655.5</v>
+        <v>643</v>
       </c>
       <c r="N4" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>637.25</v>
+        <v>658.5</v>
       </c>
       <c r="O4" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>640.25</v>
+        <v>647.5</v>
       </c>
       <c r="P4" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>682</v>
+        <v>641.75</v>
       </c>
       <c r="Q4" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>632.75</v>
+        <v>658.25</v>
       </c>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.25">
@@ -3360,27 +3374,27 @@
       </c>
       <c r="L5" s="34">
         <f t="shared" ref="L5:Q5" ca="1" si="1">MEDIAN(D8:D23)</f>
-        <v>855.5</v>
+        <v>835.5</v>
       </c>
       <c r="M5" s="33">
         <f t="shared" ca="1" si="1"/>
-        <v>821.5</v>
+        <v>832.5</v>
       </c>
       <c r="N5" s="33">
         <f t="shared" ca="1" si="1"/>
-        <v>835.5</v>
+        <v>841</v>
       </c>
       <c r="O5" s="33">
         <f t="shared" ca="1" si="1"/>
-        <v>844.5</v>
+        <v>843.5</v>
       </c>
       <c r="P5" s="33">
         <f t="shared" ca="1" si="1"/>
-        <v>846.5</v>
+        <v>852.5</v>
       </c>
       <c r="Q5" s="32">
         <f t="shared" ca="1" si="1"/>
-        <v>843</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
@@ -3410,27 +3424,27 @@
       </c>
       <c r="L6" s="34">
         <f t="shared" ref="L6:Q6" ca="1" si="2">_xlfn.QUARTILE.EXC(D8:D23,3)</f>
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="M6" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>998</v>
+        <v>994.5</v>
       </c>
       <c r="N6" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>999</v>
+        <v>992.75</v>
       </c>
       <c r="O6" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>992</v>
+        <v>995.25</v>
       </c>
       <c r="P6" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>995</v>
+        <v>990.25</v>
       </c>
       <c r="Q6" s="32">
         <f t="shared" ca="1" si="2"/>
-        <v>994.25</v>
+        <v>995.25</v>
       </c>
     </row>
     <row r="7" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3513,27 +3527,27 @@
       </c>
       <c r="D9" s="7">
         <f t="shared" ref="D9:I9" ca="1" si="4">RANDBETWEEN(920,1000)</f>
-        <v>944</v>
+        <v>960</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>923</v>
+        <v>945</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>996</v>
+        <v>946</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>966</v>
+        <v>981</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="K9" t="s">
         <v>8</v>
@@ -3545,54 +3559,54 @@
       </c>
       <c r="D10" s="7">
         <f t="shared" ref="D10:I10" ca="1" si="5">RANDBETWEEN(839,919)</f>
-        <v>898</v>
+        <v>850</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>892</v>
+        <v>851</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>865</v>
+        <v>918</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>918</v>
+        <v>849</v>
       </c>
       <c r="K10" s="26" t="s">
         <v>7</v>
       </c>
       <c r="L10" s="25">
         <f t="shared" ref="L10:Q10" ca="1" si="6">AVERAGE(D8:D23)</f>
-        <v>810.6875</v>
+        <v>800.25</v>
       </c>
       <c r="M10" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>812.4375</v>
+        <v>817</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>817.6875</v>
+        <v>815.5</v>
       </c>
       <c r="O10" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>816.4375</v>
+        <v>813.6875</v>
       </c>
       <c r="P10" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>824.9375</v>
+        <v>815.625</v>
       </c>
       <c r="Q10" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>814.9375</v>
+        <v>813.25</v>
       </c>
     </row>
     <row r="11" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3605,23 +3619,23 @@
       </c>
       <c r="E11" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="J11" s="22"/>
       <c r="L11" s="17"/>
@@ -3640,23 +3654,23 @@
       </c>
       <c r="E12" s="9">
         <f ca="1">RANDBETWEEN(677,757)</f>
-        <v>681</v>
+        <v>733</v>
       </c>
       <c r="F12" s="13">
         <f ca="1">RANDBETWEEN(677,757)</f>
-        <v>752</v>
+        <v>706</v>
       </c>
       <c r="G12" s="13">
         <f ca="1">RANDBETWEEN(677,757)</f>
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="H12" s="13">
         <f ca="1">RANDBETWEEN(677,757)</f>
-        <v>748</v>
+        <v>722</v>
       </c>
       <c r="I12" s="12">
         <f ca="1">RANDBETWEEN(677,757)</f>
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="65" t="s">
@@ -3672,27 +3686,27 @@
       </c>
       <c r="D13" s="13">
         <f t="shared" ref="D13:I13" ca="1" si="8">RANDBETWEEN(596,676)</f>
-        <v>676</v>
+        <v>600</v>
       </c>
       <c r="E13" s="13">
         <f t="shared" ca="1" si="8"/>
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F13" s="13">
         <f t="shared" ca="1" si="8"/>
-        <v>607</v>
+        <v>643</v>
       </c>
       <c r="G13" s="13">
         <f t="shared" ca="1" si="8"/>
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" ca="1" si="8"/>
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="I13" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>597</v>
+        <v>650</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="20"/>
@@ -3708,27 +3722,27 @@
       </c>
       <c r="D14" s="13">
         <f t="shared" ref="D14:I15" ca="1" si="9">RANDBETWEEN(515,595)</f>
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="E14" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F14" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G14" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>520</v>
+        <v>594</v>
       </c>
       <c r="H14" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I14" s="12">
         <f t="shared" ca="1" si="9"/>
-        <v>521</v>
+        <v>559</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="19"/>
@@ -3744,27 +3758,27 @@
       </c>
       <c r="D15" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="E15" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F15" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="G15" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>567</v>
+        <v>521</v>
       </c>
       <c r="H15" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>573</v>
+        <v>522</v>
       </c>
       <c r="I15" s="12">
         <f t="shared" ca="1" si="9"/>
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="18"/>
@@ -3780,27 +3794,27 @@
       </c>
       <c r="D16" s="13">
         <f t="shared" ref="D16:I16" ca="1" si="10">RANDBETWEEN(596,676)</f>
-        <v>664</v>
+        <v>617</v>
       </c>
       <c r="E16" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>647</v>
+        <v>617</v>
       </c>
       <c r="F16" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G16" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="H16" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>660</v>
+        <v>615</v>
       </c>
       <c r="I16" s="12">
         <f t="shared" ca="1" si="10"/>
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="K16" s="17"/>
       <c r="L16" s="16"/>
@@ -3816,27 +3830,27 @@
       </c>
       <c r="D17" s="13">
         <f t="shared" ref="D17:I17" ca="1" si="11">RANDBETWEEN(677,757)</f>
-        <v>733</v>
+        <v>699</v>
       </c>
       <c r="E17" s="13">
         <f t="shared" ca="1" si="11"/>
-        <v>691</v>
+        <v>721</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" ca="1" si="11"/>
-        <v>680</v>
+        <v>705</v>
       </c>
       <c r="G17" s="13">
         <f t="shared" ca="1" si="11"/>
-        <v>726</v>
+        <v>694</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" ca="1" si="11"/>
-        <v>753</v>
+        <v>722</v>
       </c>
       <c r="I17" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>755</v>
+        <v>692</v>
       </c>
       <c r="J17" s="11"/>
       <c r="L17" s="10"/>
@@ -3852,27 +3866,27 @@
       </c>
       <c r="D18" s="9">
         <f t="shared" ref="D18:I18" ca="1" si="12">RANDBETWEEN(759,838)</f>
-        <v>835</v>
+        <v>809</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>792</v>
+        <v>822</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="H18" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>780</v>
+        <v>819</v>
       </c>
     </row>
     <row r="19" spans="3:24" x14ac:dyDescent="0.25">
@@ -3881,27 +3895,27 @@
       </c>
       <c r="D19" s="7">
         <f t="shared" ref="D19:I19" ca="1" si="13">RANDBETWEEN(839,919)</f>
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>898</v>
+        <v>865</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>863</v>
+        <v>850</v>
       </c>
     </row>
     <row r="20" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3910,30 +3924,30 @@
       </c>
       <c r="D20" s="7">
         <f t="shared" ref="D20:I20" ca="1" si="14">RANDBETWEEN(920,1000)</f>
-        <v>923</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>992</v>
+        <v>978</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>927</v>
+        <v>971</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>968</v>
+        <v>933</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>939</v>
+        <v>981</v>
       </c>
     </row>
-    <row r="21" spans="3:24" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C21" s="4">
         <v>19</v>
       </c>
@@ -3963,16 +3977,17 @@
       <c r="N21" s="59"/>
       <c r="O21" s="59"/>
       <c r="P21" s="60"/>
-      <c r="S21" s="73" t="s">
+      <c r="R21" s="81"/>
+      <c r="S21" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="75"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="72"/>
     </row>
-    <row r="22" spans="3:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C22" s="4">
         <v>20</v>
       </c>
@@ -4010,26 +4025,26 @@
       <c r="P22" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="S22" s="70" t="s">
+      <c r="S22" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="T22" s="71" t="s">
+      <c r="T22" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="U22" s="72" t="s">
+      <c r="U22" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="V22" s="72" t="s">
+      <c r="V22" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="W22" s="71" t="s">
+      <c r="W22" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="X22" s="70" t="s">
+      <c r="X22" s="76" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="3:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4">
         <v>21</v>
       </c>
@@ -4069,22 +4084,22 @@
       <c r="P23" s="53">
         <v>1000</v>
       </c>
-      <c r="S23" s="70">
+      <c r="S23" s="77">
         <v>500</v>
       </c>
-      <c r="T23" s="71">
+      <c r="T23" s="78">
         <v>562</v>
       </c>
-      <c r="U23" s="72">
+      <c r="U23" s="79">
         <v>625</v>
       </c>
-      <c r="V23" s="72">
+      <c r="V23" s="79">
         <v>625</v>
       </c>
-      <c r="W23" s="71">
+      <c r="W23" s="78">
         <v>687</v>
       </c>
-      <c r="X23" s="70">
+      <c r="X23" s="80">
         <v>750</v>
       </c>
     </row>
@@ -4160,14 +4175,14 @@
     <row r="27" spans="3:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M13:O13"/>
     <mergeCell ref="S21:X21"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="K21:P21"/>
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="M14:O14"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M13:O13"/>
   </mergeCells>
   <conditionalFormatting sqref="L3:Q6 L10:Q10">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
